--- a/Stocks/PGHH.xlsx
+++ b/Stocks/PGHH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>7379.6333333333341</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>8038.2905427696624</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>7973.8133855338556</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>41.896220003416069</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>140</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>7.1428571428571426E-3</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>8016.8330789309703</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>22.569662027946833</v>
       </c>
       <c r="Y67">
         <v>36.722193971453073</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>8081</v>
+      </c>
+      <c r="D83">
+        <v>8321.2999999999993</v>
+      </c>
+      <c r="E83">
+        <v>8078</v>
+      </c>
+      <c r="F83">
+        <v>8250</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>8216.4333333333325</v>
+      </c>
+      <c r="H83">
+        <v>8181.6665978578094</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>8241.5257501794731</v>
+      </c>
+      <c r="K83">
+        <v>8059.0883566294478</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>65.199872399018105</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>172</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>243.29999999999927</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.70694615700781138</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>8160.9108393128763</v>
+      </c>
+      <c r="W83">
+        <v>8114.2772514201679</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>46.63358789270842</v>
+      </c>
+      <c r="Y83">
+        <v>40.137871725383349</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>8247</v>
+      </c>
+      <c r="D84">
+        <v>8300</v>
+      </c>
+      <c r="E84">
+        <v>8230.0499999999993</v>
+      </c>
+      <c r="F84">
+        <v>8260</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>8263.35</v>
+      </c>
+      <c r="H84">
+        <v>8222.508298928904</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>8254.5200279173678</v>
+      </c>
+      <c r="K84">
+        <v>8097.079832934015</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>66.535989189278709</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>29.950000000000728</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>69.950000000000728</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.42816297355254346</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>8176.1553255724339</v>
+      </c>
+      <c r="W84">
+        <v>8125.0715290927483</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>51.083796479685589</v>
+      </c>
+      <c r="Y84">
+        <v>42.327056676243799</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>8249.85</v>
+      </c>
+      <c r="D85">
+        <v>8310</v>
+      </c>
+      <c r="E85">
+        <v>8249.85</v>
+      </c>
+      <c r="F85">
+        <v>8300</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>8286.6166666666668</v>
+      </c>
+      <c r="H85">
+        <v>8254.5624827977845</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>8266.8489106023972</v>
+      </c>
+      <c r="K85">
+        <v>8131.0287589486788</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>71.925461192104606</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>50.149999999999636</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>60.149999999999636</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.83374896093100481</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>8195.2083524074442</v>
+      </c>
+      <c r="W85">
+        <v>8138.0291936043968</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>57.179158803047358</v>
+      </c>
+      <c r="Y85">
+        <v>45.297477101604514</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>8305.0499999999993</v>
+      </c>
+      <c r="D86">
+        <v>8345</v>
+      </c>
+      <c r="E86">
+        <v>8220</v>
+      </c>
+      <c r="F86">
+        <v>8226.4</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>8263.8000000000011</v>
+      </c>
+      <c r="H86">
+        <v>8259.1812413988919</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>8284.2158193574196</v>
+      </c>
+      <c r="K86">
+        <v>8150.8001458489725</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>52.48419310459208</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>6.3999999999996362</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>125</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>5.1199999999997088E-2</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>8200.007067421684</v>
+      </c>
+      <c r="W86">
+        <v>8144.57517926333</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>55.431888158354013</v>
+      </c>
+      <c r="Y86">
+        <v>47.324359312954414</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>8324.9500000000007</v>
+      </c>
+      <c r="D87">
+        <v>8340</v>
+      </c>
+      <c r="E87">
+        <v>8238.7000000000007</v>
+      </c>
+      <c r="F87">
+        <v>8335</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>8304.5666666666675</v>
+      </c>
+      <c r="H87">
+        <v>8281.8739540327806</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>8296.6123039446593</v>
+      </c>
+      <c r="K87">
+        <v>8170.333446771423</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>68.29202878710899</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>96.299999999999272</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>101.29999999999927</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.95064165844027604</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>8220.7752108952718</v>
+      </c>
+      <c r="W87">
+        <v>8158.6807215401204</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>62.094489355151381</v>
+      </c>
+      <c r="Y87">
+        <v>50.278385321393806</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>8315</v>
+      </c>
+      <c r="D88">
+        <v>8428</v>
+      </c>
+      <c r="E88">
+        <v>8315</v>
+      </c>
+      <c r="F88">
+        <v>8390</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>8377.6666666666661</v>
+      </c>
+      <c r="H88">
+        <v>8329.7703103497224</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>8325.8095697347344</v>
+      </c>
+      <c r="K88">
+        <v>8202.4815697111062</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>73.80825025375438</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>75</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>113</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.66371681415929207</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>8246.8097938344599</v>
+      </c>
+      <c r="W88">
+        <v>8175.8154829075193</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>70.99431092694067</v>
+      </c>
+      <c r="Y88">
+        <v>54.421570442503182</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>8345.9</v>
+      </c>
+      <c r="D89">
+        <v>8444</v>
+      </c>
+      <c r="E89">
+        <v>8301</v>
+      </c>
+      <c r="F89">
+        <v>8370</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>8371.6666666666661</v>
+      </c>
+      <c r="H89">
+        <v>8350.7184885081952</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>8352.0741097936825</v>
+      </c>
+      <c r="K89">
+        <v>8224.3745542197485</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>68.399424328854053</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>143</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.4825174825174825</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>8265.7621332445433</v>
+      </c>
+      <c r="W89">
+        <v>8190.1995212106658</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>75.562612033877485</v>
+      </c>
+      <c r="Y89">
+        <v>58.649778760778041</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>8315</v>
+      </c>
+      <c r="D90">
+        <v>8418</v>
+      </c>
+      <c r="E90">
+        <v>8221</v>
+      </c>
+      <c r="F90">
+        <v>8400</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>8346.3333333333339</v>
+      </c>
+      <c r="H90">
+        <v>8348.5259109207655</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>8366.724307617309</v>
+      </c>
+      <c r="K90">
+        <v>8223.624653282026</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>72.21692929715627</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>179</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>197</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.90862944162436543</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>8286.4141127453822</v>
+      </c>
+      <c r="W90">
+        <v>8205.7402974172837</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>80.673815328098499</v>
+      </c>
+      <c r="Y90">
+        <v>63.054586074242131</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>8395</v>
+      </c>
+      <c r="D91">
+        <v>8428.9500000000007</v>
+      </c>
+      <c r="E91">
+        <v>8340</v>
+      </c>
+      <c r="F91">
+        <v>8363</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>8377.3166666666675</v>
+      </c>
+      <c r="H91">
+        <v>8362.9212887937174</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>8380.5522392579078</v>
+      </c>
+      <c r="K91">
+        <v>8249.4858414415758</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>60.878804905843289</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>88.950000000000728</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.25857223159077924</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>8298.196556938401</v>
+      </c>
+      <c r="W91">
+        <v>8217.3891642752624</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>80.807392663138671</v>
+      </c>
+      <c r="Y91">
+        <v>66.605147392021436</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>8444</v>
+      </c>
+      <c r="D92">
+        <v>8444</v>
+      </c>
+      <c r="E92">
+        <v>8280</v>
+      </c>
+      <c r="F92">
+        <v>8350</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>8358</v>
+      </c>
+      <c r="H92">
+        <v>8360.4606443968587</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>8394.6517416450388</v>
+      </c>
+      <c r="K92">
+        <v>8256.2667655656696</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>56.95180125582138</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>164</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.42682926829268292</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>8306.1663174094156</v>
+      </c>
+      <c r="W92">
+        <v>8227.2121891437619</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>78.954128265653708</v>
+      </c>
+      <c r="Y92">
+        <v>69.074943566747891</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>8354</v>
+      </c>
+      <c r="D93">
+        <v>8414.9500000000007</v>
+      </c>
+      <c r="E93">
+        <v>8301</v>
+      </c>
+      <c r="F93">
+        <v>8324</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>8346.65</v>
+      </c>
+      <c r="H93">
+        <v>8353.5553221984301</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>8399.162465723919</v>
+      </c>
+      <c r="K93">
+        <v>8266.2074843288538</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>49.042975510352321</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>113.95000000000073</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.20184291355857703</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>8308.9099608848901</v>
+      </c>
+      <c r="W93">
+        <v>8234.3816566145942</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>74.528304270295848</v>
+      </c>
+      <c r="Y93">
+        <v>70.165615707457476</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>8359.7000000000007</v>
+      </c>
+      <c r="D94">
+        <v>8374.7999999999993</v>
+      </c>
+      <c r="E94">
+        <v>8161</v>
+      </c>
+      <c r="F94">
+        <v>8300.1</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>8278.6333333333332</v>
+      </c>
+      <c r="H94">
+        <v>8316.0943277658807</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>8393.748584451936</v>
+      </c>
+      <c r="K94">
+        <v>8242.828043366886</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>42.294267796493834</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>139.10000000000036</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>213.79999999999927</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.65060804490178126</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>8307.5545822872155</v>
+      </c>
+      <c r="W94">
+        <v>8239.2496820505494</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>68.304900236666072</v>
+      </c>
+      <c r="Y94">
+        <v>69.793472613299201</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>8327.75</v>
+      </c>
+      <c r="D95">
+        <v>8389.9500000000007</v>
+      </c>
+      <c r="E95">
+        <v>8306.1</v>
+      </c>
+      <c r="F95">
+        <v>8306.1</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>8334.0500000000011</v>
+      </c>
+      <c r="H95">
+        <v>8325.0721638829418</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>8392.9044545737288</v>
+      </c>
+      <c r="K95">
+        <v>8256.8884781742454</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>44.682991166639901</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>83.850000000000364</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>8307.3308003968741</v>
+      </c>
+      <c r="W95">
+        <v>8244.2015574542129</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>63.129242942661222</v>
+      </c>
+      <c r="Y95">
+        <v>68.460626679171611</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>8315</v>
+      </c>
+      <c r="D96">
+        <v>8410</v>
+      </c>
+      <c r="E96">
+        <v>8315</v>
+      </c>
+      <c r="F96">
+        <v>8410</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>8378.3333333333339</v>
+      </c>
+      <c r="H96">
+        <v>8351.7027486081388</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>8396.7034646684551</v>
+      </c>
+      <c r="K96">
+        <v>8269.8021496910806</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>70.824781590245991</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>95</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>8323.1260618742781</v>
+      </c>
+      <c r="W96">
+        <v>8256.4829235687157</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>66.643138305562388</v>
+      </c>
+      <c r="Y96">
+        <v>68.097129004449769</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>8394.6</v>
+      </c>
+      <c r="D97">
+        <v>8459</v>
+      </c>
+      <c r="E97">
+        <v>8220.2000000000007</v>
+      </c>
+      <c r="F97">
+        <v>8459</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>8379.4</v>
+      </c>
+      <c r="H97">
+        <v>8365.5513743040683</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>8410.5471391865758</v>
+      </c>
+      <c r="K97">
+        <v>8258.7794497597297</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>77.181743892210321</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>238.79999999999927</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>238.79999999999927</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>8344.0297446628501</v>
+      </c>
+      <c r="W97">
+        <v>8271.4841884895523</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>72.545556173297882</v>
+      </c>
+      <c r="Y97">
+        <v>68.986814438219398</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>8436.5</v>
+      </c>
+      <c r="D98">
+        <v>8500</v>
+      </c>
+      <c r="E98">
+        <v>8375</v>
+      </c>
+      <c r="F98">
+        <v>8400</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>8425</v>
+      </c>
+      <c r="H98">
+        <v>8395.2756871520342</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>8430.4255527006699</v>
+      </c>
+      <c r="K98">
+        <v>8284.606238702012</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>58.121175278251691</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>125</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>8352.6405531762575</v>
+      </c>
+      <c r="W98">
+        <v>8281.0038782310676</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>71.636674945189952</v>
+      </c>
+      <c r="Y98">
+        <v>69.516786539613506</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>8430</v>
+      </c>
+      <c r="D99">
+        <v>8436.7999999999993</v>
+      </c>
+      <c r="E99">
+        <v>8280</v>
+      </c>
+      <c r="F99">
+        <v>8430</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>8382.2666666666664</v>
+      </c>
+      <c r="H99">
+        <v>8388.7711769093512</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>8431.8420965449659</v>
+      </c>
+      <c r="K99">
+        <v>8283.5826301015641</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>63.802833403846563</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>150</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>156.79999999999927</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.95663265306122891</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>8364.5420065337566</v>
+      </c>
+      <c r="W99">
+        <v>8292.0406279917297</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>72.501378542026941</v>
+      </c>
+      <c r="Y99">
+        <v>70.113704940096198</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>8459</v>
+      </c>
+      <c r="D100">
+        <v>8459</v>
+      </c>
+      <c r="E100">
+        <v>8310</v>
+      </c>
+      <c r="F100">
+        <v>8425</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>8398</v>
+      </c>
+      <c r="H100">
+        <v>8393.3855884546756</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>8437.8771862016401</v>
+      </c>
+      <c r="K100">
+        <v>8289.4531567456615</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>62.049055670904927</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>115</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>149</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.77181208053691275</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>8373.8432362977946</v>
+      </c>
+      <c r="W100">
+        <v>8301.889470362712</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>71.953765935082629</v>
+      </c>
+      <c r="Y100">
+        <v>70.48171713909349</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>8376</v>
+      </c>
+      <c r="D101">
+        <v>8452</v>
+      </c>
+      <c r="E101">
+        <v>8300.2999999999993</v>
+      </c>
+      <c r="F101">
+        <v>8360</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>8370.7666666666664</v>
+      </c>
+      <c r="H101">
+        <v>8382.076127560671</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>8441.0155892679431</v>
+      </c>
+      <c r="K101">
+        <v>8291.863566357737</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>42.890917902169114</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>59.700000000000728</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>151.70000000000073</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.39353988134476231</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>8371.7135076365958</v>
+      </c>
+      <c r="W101">
+        <v>8306.1939540395488</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>65.519553597046979</v>
+      </c>
+      <c r="Y101">
+        <v>69.489284430684194</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>8381.75</v>
+      </c>
+      <c r="D102">
+        <v>8409.6</v>
+      </c>
+      <c r="E102">
+        <v>8315</v>
+      </c>
+      <c r="F102">
+        <v>8369.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>8364.8333333333339</v>
+      </c>
+      <c r="H102">
+        <v>8373.4547304470034</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>8434.0343472084005</v>
+      </c>
+      <c r="K102">
+        <v>8297.0049960560173</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>46.061567769100385</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>54.899999999999636</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>94.600000000000364</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.58033826638477193</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>8371.4345064617355</v>
+      </c>
+      <c r="W102">
+        <v>8310.9129204069905</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>60.521586054745057</v>
+      </c>
+      <c r="Y102">
+        <v>67.695744755496364</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>8435</v>
+      </c>
+      <c r="D103">
+        <v>8435</v>
+      </c>
+      <c r="E103">
+        <v>8131.05</v>
+      </c>
+      <c r="F103">
+        <v>8347.9500000000007</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>8304.6666666666661</v>
+      </c>
+      <c r="H103">
+        <v>8339.0606985568338</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>8434.248936717644</v>
+      </c>
+      <c r="K103">
+        <v>8260.1261080435688</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>39.91921884921836</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>216.90000000000055</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>303.94999999999982</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.71360421121895268</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>8367.821505467622</v>
+      </c>
+      <c r="W103">
+        <v>8313.6564077842504</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>54.165097683371641</v>
+      </c>
+      <c r="Y103">
+        <v>64.989615341071413</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>8262.0499999999993</v>
+      </c>
+      <c r="D104">
+        <v>8349</v>
+      </c>
+      <c r="E104">
+        <v>8260</v>
+      </c>
+      <c r="F104">
+        <v>8300</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>8303</v>
+      </c>
+      <c r="H104">
+        <v>8321.0303492784169</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>8415.304728558167</v>
+      </c>
+      <c r="K104">
+        <v>8260.0980840338871</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>29.26343916891302</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>89</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.449438202247191</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>8357.3874277033719</v>
+      </c>
+      <c r="W104">
+        <v>8312.6448220224538</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>44.742605680918132</v>
+      </c>
+      <c r="Y104">
+        <v>60.940213409040759</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
